--- a/src/main/webapp/doc/数据库文档.xlsx
+++ b/src/main/webapp/doc/数据库文档.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoyang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoyang/Documents/workspace/work_wechat/src/main/webapp/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="4960" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="44220" yWindow="2720" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>ton</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,105 @@
   </si>
   <si>
     <t>readid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工表 employee</t>
+  </si>
+  <si>
+    <t>Ygbh</t>
+  </si>
+  <si>
+    <t>Ygxm</t>
+  </si>
+  <si>
+    <t>Ksrq</t>
+  </si>
+  <si>
+    <t>Jsrq</t>
+  </si>
+  <si>
+    <t>Rsfw</t>
+  </si>
+  <si>
+    <t>Ygz</t>
+  </si>
+  <si>
+    <t>Rszfw</t>
+  </si>
+  <si>
+    <t>Gzfw</t>
+  </si>
+  <si>
+    <t>Zzdwbm</t>
+  </si>
+  <si>
+    <t>Zzdwmc</t>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <rPh sb="0" eb="1">
+      <t>yuan gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>人事范围</t>
+  </si>
+  <si>
+    <t>员工组</t>
+  </si>
+  <si>
+    <t>员工子组</t>
+  </si>
+  <si>
+    <t>人事子范围</t>
+  </si>
+  <si>
+    <t>工资范围</t>
+  </si>
+  <si>
+    <t>组织单位编码</t>
+  </si>
+  <si>
+    <t>组织单位名称</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=在职 2=离职</t>
+    <rPh sb="2" eb="3">
+      <t>zai zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ygzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +370,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -287,11 +386,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="39">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -300,6 +426,18 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -307,6 +445,18 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -581,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -733,7 +883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -741,12 +891,171 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/doc/数据库文档.xlsx
+++ b/src/main/webapp/doc/数据库文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44220" yWindow="2720" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务表" sheetId="1" r:id="rId1"/>
@@ -129,16 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0=草稿  1=发布</t>
-    <rPh sb="2" eb="3">
-      <t>cao gao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fa bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>newsid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>puttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>createtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,6 +297,23 @@
   </si>
   <si>
     <t>updatetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=草稿  1=发布 2=删除</t>
+    <rPh sb="2" eb="3">
+      <t>cao gao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shan chu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -772,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -780,7 +783,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -802,7 +805,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -834,21 +837,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -861,26 +864,26 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -901,7 +904,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -912,128 +915,128 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -1041,7 +1044,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1049,13 +1052,13 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
         <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/doc/数据库文档.xlsx
+++ b/src/main/webapp/doc/数据库文档.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>ton</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,30 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>shan chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=没有更新 1=有更新</t>
+    <rPh sb="2" eb="3">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>geng xin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1059,6 +1083,17 @@
       </c>
       <c r="D35" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/doc/数据库文档.xlsx
+++ b/src/main/webapp/doc/数据库文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1640" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务表" sheetId="1" r:id="rId1"/>
@@ -282,16 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1=在职 2=离职</t>
-    <rPh sb="2" eb="3">
-      <t>zai zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>li zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ygzz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +327,22 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>geng xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=在职 1=离职 2= 没权限</t>
+    <rPh sb="2" eb="3">
+      <t>zai zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>quan xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -818,7 +824,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -867,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1005,7 +1011,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1082,18 +1088,18 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/doc/数据库文档.xlsx
+++ b/src/main/webapp/doc/数据库文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1640" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>ton</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,75 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>quan xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理员 admin</t>
+    <rPh sb="0" eb="1">
+      <t>hou tai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan li yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <rPh sb="0" eb="1">
+      <t>deng lu m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <rPh sb="0" eb="1">
+      <t>mi ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0＝无权限 1=最高管理员 2=新闻管理员</t>
+    <rPh sb="2" eb="3">
+      <t>wu xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zui gao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guan li y</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin wen</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>guan li y</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -775,7 +844,7 @@
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1064,7 +1133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -1072,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>55</v>
       </c>
@@ -1080,7 +1149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -1091,7 +1160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>58</v>
       </c>
@@ -1100,6 +1169,46 @@
       </c>
       <c r="D36" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
